--- a/biology/Zoologie/Chironius_fuscus/Chironius_fuscus.xlsx
+++ b/biology/Zoologie/Chironius_fuscus/Chironius_fuscus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chironius fuscus  est une espèce de serpents de la famille des Colubridae[1]. En Guyane, cette espèce est appelé Serpent Chasseur, comme toutes les autres espèces du genre Chironius. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chironius fuscus  est une espèce de serpents de la famille des Colubridae. En Guyane, cette espèce est appelé Serpent Chasseur, comme toutes les autres espèces du genre Chironius. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 dans l'Est et le centre du Brésil ;
 en Guyane ;
 au Suriname ;
@@ -550,9 +564,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce mesure environ 120 à 150 cm à l'âge adulte. Ce serpent est aglyphe, il n'est pas venimeux, l'oeil est de grande taille et la pupille est ronde [2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce mesure environ 120 à 150 cm à l'âge adulte. Ce serpent est aglyphe, il n'est pas venimeux, l'oeil est de grande taille et la pupille est ronde . 
 </t>
         </is>
       </c>
@@ -581,9 +597,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chironius fuscus est une couleuvre diurne, se nourrissant en grande partie d'amphibiens. Il habite les forêts tropicales, y compris les secteurs perturbés. De nuit, cette espèce dort en hauteur dans la végétation[2]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chironius fuscus est une couleuvre diurne, se nourrissant en grande partie d'amphibiens. Il habite les forêts tropicales, y compris les secteurs perturbés. De nuit, cette espèce dort en hauteur dans la végétation. 
 </t>
         </is>
       </c>
@@ -612,10 +630,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Chironius fuscus leucometapus[3] a été élevée au rang d'espèce par Hollis en 2006[4].
-Les espèces Coluber saturninus[5], Herpetodryas vicinus[6], Herpetodryas sebastus[7], Herpetodryas holochlorus[8], Chironius cinnamomeus[9] et Dendrophis viridis[10] ont été placées en synonymie avec Chironius fuscus.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Chironius fuscus leucometapus a été élevée au rang d'espèce par Hollis en 2006.
+Les espèces Coluber saturninus, Herpetodryas vicinus, Herpetodryas sebastus, Herpetodryas holochlorus, Chironius cinnamomeus et Dendrophis viridis ont été placées en synonymie avec Chironius fuscus.
 </t>
         </is>
       </c>
@@ -644,9 +664,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique vient du latin fuscus qui signifie « sombre »[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique vient du latin fuscus qui signifie « sombre ».
 </t>
         </is>
       </c>
@@ -675,7 +697,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Linnaeus, 1758 : Systema naturae per regna tria naturae, secundum classes, ordines, genera, species, cum characteribus, differentiis, synonymis, locis, ed. 10 (texte intégral).</t>
         </is>
